--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I2">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J2">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>0.316748432147</v>
+        <v>0.3269616144876667</v>
       </c>
       <c r="R2">
-        <v>1.900490592882</v>
+        <v>1.961769686926</v>
       </c>
       <c r="S2">
-        <v>0.02511130637383177</v>
+        <v>0.03577696832482225</v>
       </c>
       <c r="T2">
-        <v>0.01967834041060739</v>
+        <v>0.02699735399030757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I3">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J3">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
         <v>1.765463805852444</v>
@@ -641,10 +641,10 @@
         <v>15.889174252672</v>
       </c>
       <c r="S3">
-        <v>0.1399631316883589</v>
+        <v>0.193181523034673</v>
       </c>
       <c r="T3">
-        <v>0.1645220349727622</v>
+        <v>0.2186626007996053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I4">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J4">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.02894009505566666</v>
+        <v>0.009145373590111111</v>
       </c>
       <c r="R4">
-        <v>0.260460855501</v>
+        <v>0.082308362311</v>
       </c>
       <c r="S4">
-        <v>0.002294324200769505</v>
+        <v>0.001000709951120006</v>
       </c>
       <c r="T4">
-        <v>0.002696902261649309</v>
+        <v>0.001132705846400601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I5">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J5">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>1.339961988765167</v>
+        <v>0.6463239280423333</v>
       </c>
       <c r="R5">
-        <v>8.039771932591</v>
+        <v>3.877943568254</v>
       </c>
       <c r="S5">
-        <v>0.1062300318302924</v>
+        <v>0.07072240188616237</v>
       </c>
       <c r="T5">
-        <v>0.08324659406666986</v>
+        <v>0.05336723060016313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I6">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J6">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>0.2030629735897778</v>
+        <v>0.01804680084122222</v>
       </c>
       <c r="R6">
-        <v>1.827566762308</v>
+        <v>0.162421207571</v>
       </c>
       <c r="S6">
-        <v>0.01609850602394691</v>
+        <v>0.001974726675706264</v>
       </c>
       <c r="T6">
-        <v>0.01892326171279364</v>
+        <v>0.002235197569597738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I7">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J7">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.04530073980755555</v>
+        <v>0.01810016246577778</v>
       </c>
       <c r="R7">
-        <v>0.407706658268</v>
+        <v>0.162901462192</v>
       </c>
       <c r="S7">
-        <v>0.003591369809025077</v>
+        <v>0.001980565639874815</v>
       </c>
       <c r="T7">
-        <v>0.004221536501742119</v>
+        <v>0.002241806706284386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H8">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I8">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J8">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N8">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O8">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P8">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q8">
-        <v>0.7632402091689999</v>
+        <v>0.7463214293726667</v>
       </c>
       <c r="R8">
-        <v>4.579441255013999</v>
+        <v>4.477928576236</v>
       </c>
       <c r="S8">
-        <v>0.0605084565039787</v>
+        <v>0.08166438185914071</v>
       </c>
       <c r="T8">
-        <v>0.04741712705343543</v>
+        <v>0.06162406510898311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H9">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I9">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J9">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P9">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q9">
-        <v>4.254079350371555</v>
+        <v>4.029841463665777</v>
       </c>
       <c r="R9">
-        <v>38.286714153344</v>
+        <v>36.268573172992</v>
       </c>
       <c r="S9">
-        <v>0.3372565704009376</v>
+        <v>0.4409554639175061</v>
       </c>
       <c r="T9">
-        <v>0.3964339508624458</v>
+        <v>0.499118482256155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H10">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I10">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J10">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N10">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O10">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P10">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q10">
-        <v>0.06973434423633333</v>
+        <v>0.02087519753844444</v>
       </c>
       <c r="R10">
-        <v>0.6276090981270001</v>
+        <v>0.187876777846</v>
       </c>
       <c r="S10">
-        <v>0.00552842667926494</v>
+        <v>0.002284217009013779</v>
       </c>
       <c r="T10">
-        <v>0.006498482825431288</v>
+        <v>0.002585510374571387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H11">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I11">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J11">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N11">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O11">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P11">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q11">
-        <v>3.228785890592833</v>
+        <v>1.475296721207333</v>
       </c>
       <c r="R11">
-        <v>19.372715343557</v>
+        <v>8.851780327243999</v>
       </c>
       <c r="S11">
-        <v>0.2559729535663616</v>
+        <v>0.1614307053965806</v>
       </c>
       <c r="T11">
-        <v>0.2005918306757867</v>
+        <v>0.1218158525598939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H12">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I12">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J12">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N12">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O12">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P12">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q12">
-        <v>0.4893025843462221</v>
+        <v>0.04119356402288889</v>
       </c>
       <c r="R12">
-        <v>4.403723259116</v>
+        <v>0.370742076206</v>
       </c>
       <c r="S12">
-        <v>0.03879112209566786</v>
+        <v>0.004507504153179505</v>
       </c>
       <c r="T12">
-        <v>0.04559768182571299</v>
+        <v>0.005102054097960235</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H13">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I13">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J13">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N13">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O13">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P13">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q13">
-        <v>0.1091571184484444</v>
+        <v>0.04131536707911111</v>
       </c>
       <c r="R13">
-        <v>0.982414066036</v>
+        <v>0.371838303712</v>
       </c>
       <c r="S13">
-        <v>0.008653800827564706</v>
+        <v>0.004520832152220483</v>
       </c>
       <c r="T13">
-        <v>0.01017225683096326</v>
+        <v>0.005117140090077773</v>
       </c>
     </row>
   </sheetData>
